--- a/titles.xlsx
+++ b/titles.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\titles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F111CE-7A3F-4032-89E9-6B6A83C4B4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29AED3B-0271-444A-9A51-746830035264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="30915" windowHeight="16395" xr2:uid="{5FE6A1AC-151B-4217-945E-3C2F9C22278D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="63">
   <si>
     <t>God</t>
   </si>
@@ -151,12 +151,6 @@
   </si>
   <si>
     <t>Witch King</t>
-  </si>
-  <si>
-    <t>Dark</t>
-  </si>
-  <si>
-    <t>Light</t>
   </si>
   <si>
     <t>High</t>
@@ -571,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3780D0BD-F362-4C55-8D51-DE062EB90B65}">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -585,13 +579,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
         <v>59</v>
-      </c>
-      <c r="B1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -599,10 +593,10 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -610,10 +604,10 @@
         <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -621,10 +615,10 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -632,10 +626,10 @@
         <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -643,10 +637,10 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -654,10 +648,10 @@
         <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -665,10 +659,10 @@
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -676,10 +670,10 @@
         <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -687,10 +681,10 @@
         <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -698,32 +692,32 @@
         <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -731,10 +725,10 @@
         <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
@@ -742,10 +736,10 @@
         <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
@@ -753,10 +747,10 @@
         <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
@@ -764,461 +758,439 @@
         <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C33" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C34" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C36" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C39" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C40" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C41" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C42" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C44" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C45" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C48" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C50" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C51" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
-        <v>53</v>
-      </c>
-      <c r="B57" t="s">
-        <v>58</v>
-      </c>
-      <c r="C57" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A58" t="s">
-        <v>54</v>
-      </c>
-      <c r="B58" t="s">
-        <v>58</v>
-      </c>
-      <c r="C58" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/titles.xlsx
+++ b/titles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\titles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29AED3B-0271-444A-9A51-746830035264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70531DDB-F490-4C42-B75C-1A781D302D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="30915" windowHeight="16395" xr2:uid="{5FE6A1AC-151B-4217-945E-3C2F9C22278D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="72">
   <si>
     <t>God</t>
   </si>
@@ -214,6 +214,33 @@
   </si>
   <si>
     <t>Of Hounds</t>
+  </si>
+  <si>
+    <t>Grandmaster</t>
+  </si>
+  <si>
+    <t>Thaumaturgist</t>
+  </si>
+  <si>
+    <t>Priest</t>
+  </si>
+  <si>
+    <t>Of The Scourge</t>
+  </si>
+  <si>
+    <t>Possessed</t>
+  </si>
+  <si>
+    <t>Avatar</t>
+  </si>
+  <si>
+    <t>Prince</t>
+  </si>
+  <si>
+    <t>Of The Sword</t>
+  </si>
+  <si>
+    <t>Sigil</t>
   </si>
 </sst>
 </file>
@@ -565,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3780D0BD-F362-4C55-8D51-DE062EB90B65}">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1193,6 +1220,105 @@
         <v>42</v>
       </c>
     </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" t="s">
+        <v>54</v>
+      </c>
+      <c r="C61" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" t="s">
+        <v>55</v>
+      </c>
+      <c r="C62" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" t="s">
+        <v>55</v>
+      </c>
+      <c r="C63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" t="s">
+        <v>56</v>
+      </c>
+      <c r="C64" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" t="s">
+        <v>54</v>
+      </c>
+      <c r="C65" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/titles.xlsx
+++ b/titles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\titles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70531DDB-F490-4C42-B75C-1A781D302D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14E34CA-BA15-4A9B-88B5-F63526EABDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="30915" windowHeight="16395" xr2:uid="{5FE6A1AC-151B-4217-945E-3C2F9C22278D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="73">
   <si>
     <t>God</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>Sigil</t>
+  </si>
+  <si>
+    <t>Prime</t>
   </si>
 </sst>
 </file>
@@ -592,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3780D0BD-F362-4C55-8D51-DE062EB90B65}">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1319,6 +1322,17 @@
         <v>61</v>
       </c>
     </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66" t="s">
+        <v>54</v>
+      </c>
+      <c r="C66" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/titles.xlsx
+++ b/titles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\titles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14E34CA-BA15-4A9B-88B5-F63526EABDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB9E09E-848C-4EFB-9E7A-3A352EC3DA54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="30915" windowHeight="16395" xr2:uid="{5FE6A1AC-151B-4217-945E-3C2F9C22278D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="74">
   <si>
     <t>God</t>
   </si>
@@ -244,6 +244,9 @@
   </si>
   <si>
     <t>Prime</t>
+  </si>
+  <si>
+    <t>Stormcaller</t>
   </si>
 </sst>
 </file>
@@ -595,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3780D0BD-F362-4C55-8D51-DE062EB90B65}">
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1333,6 +1336,17 @@
         <v>61</v>
       </c>
     </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67" t="s">
+        <v>55</v>
+      </c>
+      <c r="C67" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
